--- a/doctor_list.xlsx
+++ b/doctor_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\reachme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chirayusahu/Desktop/reachme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A0D75C-5F7A-42D6-BDE9-0CD03DF55A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE31A5AA-B66E-CD45-B867-08A796E6EEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="2980" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Dr. John Smith</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Dr. Nitigya</t>
+  </si>
+  <si>
+    <t>Timepass</t>
   </si>
 </sst>
 </file>
@@ -573,18 +579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -592,7 +600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -600,7 +608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -608,7 +616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -616,7 +624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -624,7 +632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -632,7 +640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -640,7 +648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -648,7 +656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -656,7 +664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -664,7 +672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -672,7 +680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -680,7 +688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -688,7 +696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -696,7 +704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -704,7 +712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -712,7 +720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -720,7 +728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -728,7 +736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -736,7 +744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -744,7 +752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -752,7 +760,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -760,7 +768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -768,7 +776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -776,7 +784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -784,7 +792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -792,7 +800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -800,7 +808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -808,7 +816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -816,7 +824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -824,12 +832,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
